--- a/biology/Zoologie/Centropomus/Centropomus.xlsx
+++ b/biology/Zoologie/Centropomus/Centropomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centropomus Lacépède, 1802 est le genre unique de la famille des Centropomidae Poey, 1868. Il y a douze espèces reconnues.
 Ce terme vient du grec kentron (aiguillon) et poma (opercule). Le « Centropomus undecimalis » est un poisson vivant dans les mers d'Amérique, dit « brochet de mer ».
@@ -512,9 +524,11 @@
           <t>Ancienne sous-famille Latinae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une analyse cladistique[1] de 2004, a montré que la famille Centropomidae était paraphylétique. L'ancienne sous-famille Latinae a depuis été élevée au rang de famille sous le nom Latidae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une analyse cladistique de 2004, a montré que la famille Centropomidae était paraphylétique. L'ancienne sous-famille Latinae a depuis été élevée au rang de famille sous le nom Latidae.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (30 janv. 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (30 janv. 2016) :
 Centropomus armatus Gill, 1863
 Centropomus ensiferus Poey, 1860
 Centropomus medius Günther, 1864
@@ -585,9 +601,11 @@
           <t>Autres espèces de poissons « centropome »</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>On a donné le nom de « centropome » à tous les poissons comme le labrax lupus ou bar[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>On a donné le nom de « centropome » à tous les poissons comme le labrax lupus ou bar.
 C'est aussi le camuri de Marcgrave, la sphyrène or vert et la persèque loubine.
 Centrarchus : poisson faisant partie des acanthoptères, de la famille des percidés. Perches de roche « bar » d'eau douce d'Amérique du Nord. Exemple : Centrarchus hexacanthus du lac Huron, Centrarchus tetracanthus de Cuba.
 Centrisque (Centriscus) : poisson faisant partie des acanthoptères, de la famille des fistularidés, de forme comprimée, à bouche prolongée en long museau tubuleux. Dit aussi poisson trompette, bécasse de mer. Poisson rare de Méditerranée de 10 cm à 15 cm, il a le corps rose doré ou gris métallique en dessus, avec le dessous et les flancs d'un rose argenté.
